--- a/biology/Botanique/Linaceae/Linaceae.xlsx
+++ b/biology/Botanique/Linaceae/Linaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Linaceae (Les Linacées) sont une famille de plantes à fleurs dicotylédones de l'ordre des Malpighiales. Elle comprend une petite centaine d'espèces réparties en 8 à 15 genres.
 Ce sont des plantes herbacées, des arbustes et parfois des arbres. C'est une famille cosmopolite des zones froides à tropicales.
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Linum issu du latin linum (et du grec λινον linon), désignant les plantes herbacées à tiges fibreuses nommées « lin » en français et par métonymie le fil et le tissu qu'on en fait[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Linum issu du latin linum (et du grec λινον linon), désignant les plantes herbacées à tiges fibreuses nommées « lin » en français et par métonymie le fil et le tissu qu'on en fait.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La classification phylogénétique place maintenant cette famille dans l'ordre des Malpighiales.
 Elle la rapproche des Hugoniacées qui est maintenant considérée comme une sous-famille. Les Linacées actuelles sont donc composées des :
@@ -577,9 +593,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Angiosperm Phylogeny Website                        (24 mai 2010)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Angiosperm Phylogeny Website                        (24 mai 2010) :
 genre Anisadenia (es) Wall. ex Meisn.
 genre Cliococca Bab.
 genre Durandea (es) Planch.
@@ -594,7 +612,7 @@
 genre Roucheria (es) Planch.
 genre Sclerolinon (en) C.M.Rogers
 genre Tirpitzia (es) Hallier f.
-Selon NCBI  (24 mai 2010)[3] :
+Selon NCBI  (24 mai 2010) :
 genre Adenolinum
 genre Anisadenia
 genre Cliococca
@@ -610,7 +628,7 @@
 genre Roucheria
 genre Sclerolinon
 genre Tirpitzia
-Selon DELTA Angio           (24 mai 2010)[4] :
+Selon DELTA Angio           (24 mai 2010) :
 genre Anisadenia
 genre Cliococca
 genre Hesperolinon
@@ -619,7 +637,7 @@
 genre Reinwardtia
 genre Sclerolinon
 genre Tirpitzia
-Selon ITIS      (24 mai 2010)[5] :
+Selon ITIS      (24 mai 2010) :
 genre Hesperolinon (Gray) Small
 genre Linum L.
 genre Radiola Hill
@@ -652,9 +670,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (24 mai 2010)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (24 mai 2010) :
 genre Adenolinum
 Adenolinum lewisii
 genre Anisadenia
